--- a/1_plan_de_travail/planning.xlsx
+++ b/1_plan_de_travail/planning.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$K$33</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Mardi</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Début de TB, discussion, installation programme</t>
   </si>
   <si>
-    <t>Recherche de documentation</t>
-  </si>
-  <si>
-    <t>Prise de mesure</t>
-  </si>
-  <si>
     <t>Préparation des étapes de travail sur terrain</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
   </si>
   <si>
     <t>Orthophoto</t>
-  </si>
-  <si>
-    <t>Prise de mesure / levé valeur doit de l'église</t>
   </si>
   <si>
     <t>Méthodologie de travail en fonction du secteur</t>
@@ -181,6 +172,20 @@
   </si>
   <si>
     <t>Plan de travail</t>
+  </si>
+  <si>
+    <t>Recherche de documentation / script automatisation</t>
+  </si>
+  <si>
+    <t>Préparation du matériel de terrain / test</t>
+  </si>
+  <si>
+    <t>Prise de mesure 
+Faro / MS60</t>
+  </si>
+  <si>
+    <t>Prise de mesure
+Photo / Héron</t>
   </si>
 </sst>
 </file>
@@ -203,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF8F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -274,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -321,6 +332,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,6 +342,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF33FF8F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -605,7 +624,7 @@
   <dimension ref="A3:K1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:K10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,34 +635,34 @@
   <sheetData>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -652,31 +671,31 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -687,31 +706,31 @@
         <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -719,31 +738,31 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="11"/>
     </row>
@@ -752,31 +771,31 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="K7" s="11"/>
     </row>
@@ -785,51 +804,51 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F10" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1048572" spans="4:4" x14ac:dyDescent="0.25">

--- a/1_plan_de_travail/planning.xlsx
+++ b/1_plan_de_travail/planning.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Mardi</t>
   </si>
@@ -108,12 +108,6 @@
   </si>
   <si>
     <t>Recherche de méthode de numérisation</t>
-  </si>
-  <si>
-    <t>script pour optimiser les calculs</t>
-  </si>
-  <si>
-    <t>Modélisation --&gt; test</t>
   </si>
   <si>
     <t>Finalisation du rapport</t>
@@ -180,12 +174,26 @@
     <t>Préparation du matériel de terrain / test</t>
   </si>
   <si>
-    <t>Prise de mesure 
-Faro / MS60</t>
-  </si>
-  <si>
     <t>Prise de mesure
 Photo / Héron</t>
+  </si>
+  <si>
+    <t>Mesure total de l'église selon la méthode définie</t>
+  </si>
+  <si>
+    <t>Calcul des nuages</t>
+  </si>
+  <si>
+    <t>Contrôle des nuages</t>
+  </si>
+  <si>
+    <t>Script d'optimisation</t>
+  </si>
+  <si>
+    <t>Méthodologie des mesures sur l'église</t>
+  </si>
+  <si>
+    <t>Test des différents cas</t>
   </si>
 </sst>
 </file>
@@ -285,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -313,9 +321,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -624,7 +629,7 @@
   <dimension ref="A3:K1048572"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,34 +640,34 @@
   <sheetData>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -688,14 +693,14 @@
       <c r="H4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="I4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -715,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>11</v>
@@ -724,13 +729,13 @@
         <v>25</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="K5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
@@ -738,10 +743,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -755,26 +760,28 @@
       <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
@@ -783,21 +790,23 @@
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -807,7 +816,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -816,38 +825,38 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>20</v>
       </c>
     </row>
